--- a/biology/Botanique/Colli_del_Trasimeno_bianco_Vin_Santo/Colli_del_Trasimeno_bianco_Vin_Santo.xlsx
+++ b/biology/Botanique/Colli_del_Trasimeno_bianco_Vin_Santo/Colli_del_Trasimeno_bianco_Vin_Santo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Colli del Trasimeno bianco Vin Santo est un vin doux blanc de la région Ombrie doté d'une appellation DOC depuis le 13 janvier 1972. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -513,7 +525,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Pérouse près du Lac Trasimène dans les communes de Castiglione del Lago, Città della Pieve, Paciano, Piegaro, Panicale, Pérouse, Corciano, Magione, Passignano sul Trasimeno et Tuoro sul Trasimeno.
 </t>
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: jaune paille intense ou jaune ambré avec des reflets de jaune doré
 odeur : intense
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles </t>
